--- a/test.xlsx
+++ b/test.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>dafs</t>
   </si>
@@ -26,6 +27,36 @@
   </si>
   <si>
     <t>afaf</t>
+  </si>
+  <si>
+    <t>asfa</t>
+  </si>
+  <si>
+    <t>safaa</t>
+  </si>
+  <si>
+    <t>adfad</t>
+  </si>
+  <si>
+    <t>asfaf</t>
+  </si>
+  <si>
+    <t>afasdfa</t>
+  </si>
+  <si>
+    <t>afdfasf</t>
+  </si>
+  <si>
+    <t>sdfadaf</t>
+  </si>
+  <si>
+    <t>afasfd</t>
+  </si>
+  <si>
+    <t>adfsfad</t>
+  </si>
+  <si>
+    <t>sfadaf</t>
   </si>
 </sst>
 </file>
@@ -367,32 +398,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F4:K10"/>
+  <dimension ref="D4:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="6:13" x14ac:dyDescent="0.25">
       <c r="K5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="6:13" x14ac:dyDescent="0.25">
       <c r="H7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="K9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="6:13" x14ac:dyDescent="0.25">
       <c r="I10" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="M13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="H6:I15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="6" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="I15" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>dafs</t>
   </si>
@@ -57,6 +57,18 @@
   </si>
   <si>
     <t>sfadaf</t>
+  </si>
+  <si>
+    <t>efecqe</t>
+  </si>
+  <si>
+    <t>afdfa</t>
+  </si>
+  <si>
+    <t>dasfafs</t>
+  </si>
+  <si>
+    <t>sadfsadf</t>
   </si>
 </sst>
 </file>
@@ -471,20 +483,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="H6:I15"/>
+  <dimension ref="E6:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="6" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
       <c r="H6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="L14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="5:12" x14ac:dyDescent="0.25">
       <c r="I15" t="s">
         <v>13</v>
       </c>

--- a/test.xlsx
+++ b/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>dafs</t>
   </si>
@@ -69,13 +69,22 @@
   </si>
   <si>
     <t>sadfsadf</t>
+  </si>
+  <si>
+    <t>dfsfad</t>
+  </si>
+  <si>
+    <t>dsfafsda</t>
+  </si>
+  <si>
+    <t>sdafsf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,13 +92,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -104,8 +138,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,8 +450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D4:M23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,18 +504,35 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="G16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="3"/>
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="F17" s="1"/>
+      <c r="I17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="4:9" x14ac:dyDescent="0.25">
       <c r="G23" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -485,7 +540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E6:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>

--- a/test.xlsx
+++ b/test.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>dafs</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>sdafsf</t>
+  </si>
+  <si>
+    <t>阿斯顿发多发发</t>
   </si>
 </sst>
 </file>
@@ -448,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D4:M23"/>
+  <dimension ref="D4:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,6 +531,11 @@
     <row r="23" spans="4:9" x14ac:dyDescent="0.25">
       <c r="G23" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>dafs</t>
   </si>
@@ -81,6 +81,12 @@
   </si>
   <si>
     <t>阿斯顿发多发发</t>
+  </si>
+  <si>
+    <t>发打发打发</t>
+  </si>
+  <si>
+    <t>萨芬啊弗</t>
   </si>
 </sst>
 </file>
@@ -451,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D4:M26"/>
+  <dimension ref="D4:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,7 +520,7 @@
       <c r="K16" s="3"/>
       <c r="M16" s="4"/>
     </row>
-    <row r="17" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>4</v>
       </c>
@@ -523,19 +529,29 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:10" x14ac:dyDescent="0.25">
       <c r="G19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:10" x14ac:dyDescent="0.25">
       <c r="G23" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="J27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
